--- a/ch10.xlsx
+++ b/ch10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Python Scripts\1 QuantLib\0.MyBook-QL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF1978D-1716-423F-9893-98D49087CEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625B7ED9-59DD-4370-AEF2-EFAB7928E334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54340" yWindow="3200" windowWidth="19680" windowHeight="13750" xr2:uid="{AFDE00CF-4133-446F-A2E1-B7755ED3706A}"/>
+    <workbookView xWindow="10180" yWindow="1500" windowWidth="24400" windowHeight="16940" activeTab="2" xr2:uid="{AFDE00CF-4133-446F-A2E1-B7755ED3706A}"/>
   </bookViews>
   <sheets>
     <sheet name="10.2" sheetId="61" r:id="rId1"/>
@@ -430,14 +430,14 @@
   <numFmts count="10">
     <numFmt numFmtId="176" formatCode="0.0000%"/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
-    <numFmt numFmtId="179" formatCode="0.00000%"/>
-    <numFmt numFmtId="180" formatCode="0.00000"/>
-    <numFmt numFmtId="181" formatCode="0.000000"/>
-    <numFmt numFmtId="182" formatCode="#,##0.000000;[Red]\-#,##0.000000"/>
-    <numFmt numFmtId="183" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="&quot;(Act365)&quot;0.000%"/>
-    <numFmt numFmtId="186" formatCode="\(\P\V0\1\)0.0000"/>
-    <numFmt numFmtId="188" formatCode="0.000%"/>
+    <numFmt numFmtId="178" formatCode="0.00000%"/>
+    <numFmt numFmtId="179" formatCode="0.00000"/>
+    <numFmt numFmtId="180" formatCode="0.000000"/>
+    <numFmt numFmtId="181" formatCode="#,##0.000000;[Red]\-#,##0.000000"/>
+    <numFmt numFmtId="182" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="183" formatCode="&quot;(Act365)&quot;0.000%"/>
+    <numFmt numFmtId="184" formatCode="\(\P\V0\1\)0.0000"/>
+    <numFmt numFmtId="185" formatCode="0.000%"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -663,7 +663,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -687,7 +687,7 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -723,7 +723,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -765,7 +765,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -783,10 +783,10 @@
     <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -795,7 +795,7 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -810,16 +810,16 @@
     <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -828,16 +828,16 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="185" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -858,7 +858,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -987,7 +987,7 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
               <a:latin typeface="Arial unicode MS"/>
             </a:rPr>
-            <a:t>E11=D7-D8</a:t>
+            <a:t>E11=D10-D11</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1071,7 +1071,7 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
               <a:latin typeface="Arial unicode MS"/>
             </a:rPr>
-            <a:t>)  E10=D10-D11</a:t>
+            <a:t>)  E11=D10-D11</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1086,7 +1086,7 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
               <a:latin typeface="Arial unicode MS"/>
             </a:rPr>
-            <a:t>E11=SUMPRODUCT(B8:B11,C8:C11,I8:I11)</a:t>
+            <a:t>E12=SUMPRODUCT(B8:B11,C8:C11,I8:I11)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1101,7 +1101,7 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
               <a:latin typeface="Arial unicode MS"/>
             </a:rPr>
-            <a:t>E12=SUMPRODUCT(H8:H11,E8:E11)*(1-B3)</a:t>
+            <a:t>E13=SUMPRODUCT(H8:H11,E8:E11)*(1-B3)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1697,7 +1697,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044BA9AA-EDE1-4F8B-8844-8852D7D43EE4}">
   <dimension ref="A3:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
@@ -1934,7 +1936,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F0D120C-B124-4C0C-957D-C62C6B74D949}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
@@ -2327,7 +2331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79857D75-0EA3-48BD-B529-950F5C848194}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
